--- a/output/df_schedule_charging_station2.xlsx
+++ b/output/df_schedule_charging_station2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>car models</t>
   </si>
@@ -28,187 +28,175 @@
     <t>final SoC</t>
   </si>
   <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Audi E-TRON</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 64 kWh</t>
+  </si>
+  <si>
+    <t>Polestar 2</t>
+  </si>
+  <si>
+    <t>TESLA MODEL Y</t>
+  </si>
+  <si>
+    <t>VW ID.3</t>
+  </si>
+  <si>
+    <t>Renault ZOE</t>
+  </si>
+  <si>
     <t>VW E-UP</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Opel CORSA</t>
-  </si>
-  <si>
-    <t>Renault ZOE</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 64 kWh</t>
-  </si>
-  <si>
-    <t>VW ID.3</t>
+    <t>Peugeot 208</t>
   </si>
   <si>
     <t>Fiat 500 E</t>
   </si>
   <si>
-    <t>Hyundai KONA 39 kWh</t>
-  </si>
-  <si>
-    <t>VW ID.5</t>
-  </si>
-  <si>
-    <t>TESLA MODEL Y</t>
-  </si>
-  <si>
-    <t>Renault TWINGO</t>
-  </si>
-  <si>
     <t>Hyundai IONIQ5 58kWh</t>
   </si>
   <si>
     <t>Tesla MODEL 3</t>
   </si>
   <si>
-    <t>Audi Q4</t>
-  </si>
-  <si>
-    <t>Smart FORTWO</t>
-  </si>
-  <si>
-    <t>MINI Cooper SE</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 77kWh</t>
-  </si>
-  <si>
-    <t>VW ID.4</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:42</t>
-  </si>
-  <si>
     <t>2022-02-17 07:32</t>
   </si>
   <si>
-    <t>2022-02-17 07:53</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:26</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:37</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:33</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:58</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:49</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:13</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:45</t>
-  </si>
-  <si>
-    <t>2022-02-17 15:53</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:20</t>
-  </si>
-  <si>
-    <t>2022-02-17 15:00</t>
-  </si>
-  <si>
-    <t>2022-02-17 15:48</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:26</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:39</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:15</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:59</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:25</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:37</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:01</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:06</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:04</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:38</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:16</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:20</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:37</t>
-  </si>
-  <si>
-    <t>2022-02-18 15:21</t>
-  </si>
-  <si>
-    <t>2022-02-18 15:48</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:29</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:25</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:46</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:03</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:13</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:06</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:23</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:07</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:36</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:06</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:28</t>
-  </si>
-  <si>
-    <t>2022-02-19 15:48</t>
-  </si>
-  <si>
-    <t>2022-02-19 15:36</t>
-  </si>
-  <si>
-    <t>2022-02-19 15:54</t>
+    <t>2022-02-17 08:24</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:56</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:05</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:45</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:08</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:21</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:11</t>
+  </si>
+  <si>
+    <t>2022-02-17 10:43</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:26</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:03</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:33</t>
+  </si>
+  <si>
+    <t>2022-02-17 15:26</t>
+  </si>
+  <si>
+    <t>2022-02-17 15:59</t>
+  </si>
+  <si>
+    <t>2022-02-17 15:52</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:11</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:49</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:28</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:58</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:12</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:28</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:09</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:34</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:29</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:57</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:34</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:24</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:08</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:30</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:56</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:23</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:06</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:31</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:43</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:04</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:33</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:18</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:45</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:36</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:17</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:03</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:51</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:37</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:59</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:50</t>
   </si>
 </sst>
 </file>
@@ -591,13 +579,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D2">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -605,83 +593,83 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D4">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D5">
-        <v>0.65</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D6">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D8">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -689,63 +677,63 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="D11">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>0.2</v>
@@ -756,125 +744,125 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D15">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D16">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D17">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D19">
-        <v>0.6</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D20">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D21">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D22">
         <v>0.8000000000000002</v>
@@ -882,10 +870,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>0.2</v>
@@ -896,122 +884,122 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D24">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C25">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D25">
-        <v>0.8000000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D26">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C28">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D28">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D29">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C30">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D30">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>0.2</v>
@@ -1022,30 +1010,30 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C33">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D33">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C34">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D34">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1053,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C35">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D35">
         <v>0.9500000000000003</v>
@@ -1064,156 +1052,156 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>0.25</v>
       </c>
       <c r="D37">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C38">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D38">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C39">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D39">
-        <v>0.6</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C40">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D40">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C41">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D41">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C42">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D42">
-        <v>0.6</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C43">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D43">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>0.2</v>
       </c>
       <c r="D44">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C45">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D45">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>0.35</v>
       </c>
       <c r="D46">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_schedule_charging_station2.xlsx
+++ b/output/df_schedule_charging_station2.xlsx
@@ -31,172 +31,172 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Audi E-TRON</t>
+    <t>VW ID.4</t>
+  </si>
+  <si>
+    <t>Fiat 500 E</t>
+  </si>
+  <si>
+    <t>VW ID.3</t>
+  </si>
+  <si>
+    <t>TESLA MODEL Y</t>
+  </si>
+  <si>
+    <t>Smart FORTWO</t>
+  </si>
+  <si>
+    <t>Tesla MODEL 3</t>
+  </si>
+  <si>
+    <t>VW ID.5</t>
+  </si>
+  <si>
+    <t>MINI Cooper SE</t>
   </si>
   <si>
     <t>Hyundai KONA 64 kWh</t>
   </si>
   <si>
-    <t>Polestar 2</t>
-  </si>
-  <si>
-    <t>TESLA MODEL Y</t>
-  </si>
-  <si>
-    <t>VW ID.3</t>
+    <t>SKODA ENYAQ 58kWh</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 39 kWh</t>
   </si>
   <si>
     <t>Renault ZOE</t>
   </si>
   <si>
-    <t>VW E-UP</t>
-  </si>
-  <si>
-    <t>Peugeot 208</t>
-  </si>
-  <si>
-    <t>Fiat 500 E</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 58kWh</t>
-  </si>
-  <si>
-    <t>Tesla MODEL 3</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:32</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:24</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:56</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:05</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:45</t>
-  </si>
-  <si>
-    <t>2022-02-17 11:08</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:21</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:11</t>
-  </si>
-  <si>
-    <t>2022-02-17 10:43</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:26</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:03</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:33</t>
-  </si>
-  <si>
-    <t>2022-02-17 15:26</t>
-  </si>
-  <si>
-    <t>2022-02-17 15:59</t>
-  </si>
-  <si>
-    <t>2022-02-17 15:52</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:11</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:49</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:28</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:58</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:12</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:28</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:09</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:34</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:29</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:57</t>
-  </si>
-  <si>
-    <t>2022-02-18 15:34</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:24</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:08</t>
-  </si>
-  <si>
-    <t>2022-02-18 15:30</t>
-  </si>
-  <si>
-    <t>2022-02-18 15:56</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:23</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:06</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:31</t>
-  </si>
-  <si>
-    <t>2022-02-19 07:43</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:04</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:33</t>
+    <t>KIA EV6</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:10</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:57</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:06</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:16</t>
+  </si>
+  <si>
+    <t>2022-02-17 06:41</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:32</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:30</t>
+  </si>
+  <si>
+    <t>2022-02-17 13:05</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:13</t>
+  </si>
+  <si>
+    <t>2022-02-17 15:30</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:03</t>
+  </si>
+  <si>
+    <t>2022-02-17 14:19</t>
+  </si>
+  <si>
+    <t>2022-02-17 15:22</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:01</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:10</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:51</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:13</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:42</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:23</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:22</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:18</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:39</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:16</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:08</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:23</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:11</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:52</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:47</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:33</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:22</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:19</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:47</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:42</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:51</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:44</t>
   </si>
   <si>
     <t>2022-02-19 12:18</t>
   </si>
   <si>
-    <t>2022-02-19 11:45</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:36</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:17</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:03</t>
-  </si>
-  <si>
-    <t>2022-02-19 15:51</t>
-  </si>
-  <si>
-    <t>2022-02-19 15:37</t>
-  </si>
-  <si>
-    <t>2022-02-19 15:59</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:50</t>
+    <t>2022-02-19 12:01</t>
+  </si>
+  <si>
+    <t>2022-02-19 14:46</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:34</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:23</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:53</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:01</t>
   </si>
 </sst>
 </file>
@@ -579,38 +579,38 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>0.4999999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D3">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
         <v>0.9000000000000002</v>
@@ -618,72 +618,72 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D5">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="D6">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>0.8000000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D8">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D9">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -694,66 +694,66 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D12">
-        <v>0.6</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>0.2</v>
       </c>
       <c r="D13">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -761,27 +761,27 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D16">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -789,38 +789,38 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D17">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D18">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D19">
         <v>0.9000000000000002</v>
@@ -831,52 +831,52 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D20">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D22">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -884,97 +884,97 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D24">
-        <v>0.7500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D25">
-        <v>0.6</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="D26">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D28">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D29">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D30">
         <v>0.8500000000000002</v>
@@ -982,167 +982,167 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>0.2</v>
       </c>
       <c r="D31">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D32">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D33">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D34">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D35">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
       </c>
       <c r="C36">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D36">
-        <v>0.7500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
       </c>
       <c r="C37">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D37">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
       </c>
       <c r="C38">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D38">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
       </c>
       <c r="C39">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D39">
-        <v>0.7500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
       </c>
       <c r="C40">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D40">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
       </c>
       <c r="C41">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
       </c>
       <c r="C42">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D42">
         <v>0.7500000000000001</v>
@@ -1150,27 +1150,27 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
       </c>
       <c r="C43">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D43">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
       </c>
       <c r="C44">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D44">
         <v>0.7000000000000001</v>
@@ -1178,30 +1178,30 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
       </c>
       <c r="C45">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
       </c>
       <c r="C46">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D46">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_schedule_charging_station2.xlsx
+++ b/output/df_schedule_charging_station2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>car models</t>
   </si>
@@ -28,175 +28,187 @@
     <t>final SoC</t>
   </si>
   <si>
+    <t>Opel CORSA</t>
+  </si>
+  <si>
+    <t>Dacia SPRING</t>
+  </si>
+  <si>
     <t>Others</t>
   </si>
   <si>
+    <t>SKODA ENYAQ 58kWh</t>
+  </si>
+  <si>
+    <t>VW ID.5</t>
+  </si>
+  <si>
+    <t>Tesla MODEL 3</t>
+  </si>
+  <si>
+    <t>Audi Q4</t>
+  </si>
+  <si>
+    <t>Fiat 500 E</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
+  </si>
+  <si>
+    <t>Audi E-TRON</t>
+  </si>
+  <si>
+    <t>VW ID.3</t>
+  </si>
+  <si>
     <t>VW ID.4</t>
   </si>
   <si>
-    <t>Fiat 500 E</t>
-  </si>
-  <si>
-    <t>VW ID.3</t>
+    <t>MINI Cooper SE</t>
+  </si>
+  <si>
+    <t>Smart FORTWO</t>
+  </si>
+  <si>
+    <t>VW E-UP</t>
+  </si>
+  <si>
+    <t>Polestar 2</t>
   </si>
   <si>
     <t>TESLA MODEL Y</t>
   </si>
   <si>
-    <t>Smart FORTWO</t>
-  </si>
-  <si>
-    <t>Tesla MODEL 3</t>
-  </si>
-  <si>
-    <t>VW ID.5</t>
-  </si>
-  <si>
-    <t>MINI Cooper SE</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 64 kWh</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 58kWh</t>
-  </si>
-  <si>
     <t>Hyundai KONA 39 kWh</t>
   </si>
   <si>
-    <t>Renault ZOE</t>
-  </si>
-  <si>
-    <t>KIA EV6</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:10</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:57</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:06</t>
-  </si>
-  <si>
-    <t>2022-02-17 07:16</t>
-  </si>
-  <si>
-    <t>2022-02-17 06:41</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:32</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:30</t>
-  </si>
-  <si>
-    <t>2022-02-17 13:05</t>
-  </si>
-  <si>
-    <t>2022-02-17 12:13</t>
-  </si>
-  <si>
-    <t>2022-02-17 15:30</t>
-  </si>
-  <si>
-    <t>2022-02-17 17:03</t>
-  </si>
-  <si>
-    <t>2022-02-17 14:19</t>
-  </si>
-  <si>
-    <t>2022-02-17 15:22</t>
-  </si>
-  <si>
-    <t>2022-02-17 16:01</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:10</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:51</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:13</t>
-  </si>
-  <si>
-    <t>2022-02-18 07:42</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:00</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:23</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:22</t>
-  </si>
-  <si>
-    <t>2022-02-18 12:18</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:39</t>
-  </si>
-  <si>
-    <t>2022-02-18 11:16</t>
-  </si>
-  <si>
-    <t>2022-02-18 15:08</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:23</t>
-  </si>
-  <si>
-    <t>2022-02-18 15:11</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:52</t>
-  </si>
-  <si>
-    <t>2022-02-18 15:47</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:33</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:22</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:19</t>
-  </si>
-  <si>
-    <t>2022-02-19 08:47</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:42</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:51</t>
-  </si>
-  <si>
-    <t>2022-02-19 11:44</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:18</t>
-  </si>
-  <si>
-    <t>2022-02-19 12:01</t>
-  </si>
-  <si>
-    <t>2022-02-19 14:46</t>
-  </si>
-  <si>
-    <t>2022-02-19 15:34</t>
-  </si>
-  <si>
-    <t>2022-02-19 17:23</t>
-  </si>
-  <si>
-    <t>2022-02-19 16:53</t>
-  </si>
-  <si>
-    <t>2022-02-19 15:01</t>
+    <t>Hyundai IONIQ5 58kWh</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:46</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:51</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:28</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:21</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:14</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:42</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:03</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:47</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:14</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:23</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:42</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:29</t>
+  </si>
+  <si>
+    <t>2022-02-17 15:24</t>
+  </si>
+  <si>
+    <t>2022-02-17 14:59</t>
+  </si>
+  <si>
+    <t>2022-02-17 15:41</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:58</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:08</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:02</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:01</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:37</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:32</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:28</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:45</t>
+  </si>
+  <si>
+    <t>2022-02-18 13:04</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:28</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:36</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:50</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:06</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:29</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:22</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:27</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:13</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:11</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:33</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:47</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:40</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:15</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:38</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:06</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:27</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:42</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:05</t>
   </si>
 </sst>
 </file>
@@ -579,136 +591,136 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D3">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D5">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D6">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D10">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
         <v>0.9500000000000003</v>
@@ -716,125 +728,125 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D13">
-        <v>0.7500000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>0.1</v>
       </c>
       <c r="D15">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>0.35</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D19">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D20">
         <v>0.9000000000000002</v>
@@ -842,111 +854,111 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D22">
-        <v>0.7000000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>0.25</v>
       </c>
       <c r="D25">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C26">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="D26">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C27">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D27">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C28">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D28">
         <v>0.8500000000000002</v>
@@ -954,55 +966,55 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D29">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D30">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C31">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D31">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C32">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1010,30 +1022,30 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C33">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D33">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C34">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D34">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1041,108 +1053,108 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D35">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C37">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D37">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C38">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D38">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C39">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C40">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D40">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C41">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D41">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C42">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D42">
         <v>0.7500000000000001</v>
@@ -1150,55 +1162,55 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>0.3</v>
       </c>
       <c r="D43">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C44">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="D44">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>0.2</v>
       </c>
       <c r="D45">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D46">
         <v>0.7500000000000001</v>
